--- a/052c doc/original_model_version/数据统计.xlsx
+++ b/052c doc/original_model_version/数据统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\original_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FD381-56B9-4118-9044-E6709F0A77FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378940E1-A121-4C1E-BF6B-4DC508AA71F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5055" windowWidth="16440" windowHeight="28440" xr2:uid="{6E3054F1-41E4-461C-8D38-11BBB5C89CB2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E3054F1-41E4-461C-8D38-11BBB5C89CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,66 +604,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>feature</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>稀疏度</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -814,7 +755,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -873,7 +814,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -910,10 +851,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2065,14 +2003,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2399,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1C0ECC-7FF3-466F-99DA-D94AC4E8E6DE}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
